--- a/biology/Botanique/Ligustrum_sinense/Ligustrum_sinense.xlsx
+++ b/biology/Botanique/Ligustrum_sinense/Ligustrum_sinense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ligustrum sinense, le troène de Chine, est une espèce de plantes dicotylédones de la famille des Oleaceae, originaire d'Asie. L'espèce a été largement introduite dans la plupart des continents, particulièrement en Amérique du Nord où elle devenue une espèce envahissante.
 Ce sont des arbustes à feuilles semi-persistantes, pouvant atteindre 7 mètres de haut. Ils sont souvent utilisés comme plantes ornementales.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbuste pouvant mesurer jusqu'à 9 à 10 m de haut sur 8 m de large à l'état naturel. Il pousse le plus souvent en cépée.
 Son écorce est gris clair.
@@ -549,8 +563,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon The Plant List            (1 juin 2018)[1] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (1 juin 2018) :
 Ligustrum calleryanum Decne.
 Ligustrum deciduum Hemsl.
 Ligustrum fortunei C.K.Schneid.
@@ -559,16 +578,13 @@
 Ligustrum nokoense Masam. &amp; T.Mori
 Ligustrum shakaroense Kaneh.
 Ligustrum villosum May
-Ligustrum villosum[2]
+Ligustrum villosum
 Olea consanguinea Hance ex Walp.
 Olea microcarpa Vahl
 Olea rigida Steud.
 Olea walpersiana Hance ex Walp.
 Phillyrea indica Lour.
-Sous-espèces[réf. nécessaire]
-Foresteria spp.
-Ligustrum spp.
-Viburnum obovatum</t>
+</t>
         </is>
       </c>
     </row>
@@ -593,12 +609,52 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces[réf. nécessaire]</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Foresteria spp.
+Ligustrum spp.
+Viburnum obovatum</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ligustrum_sinense</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ligustrum_sinense</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (1 juin 2018)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (1 juin 2018) :
 Ligustrum sinense var. chayuense (P.Y.Pai) Y.F.Deng &amp; B.Q.Xu (2012)
 Ligustrum sinense var. concavum M.C.Chang (1986)
 Ligustrum sinense var. coryanum (W.W.Sm.) Hand.-Mazz. (1936)
@@ -610,38 +666,6 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Ligustrum_sinense</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ligustrum_sinense</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Distribution</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est originaire des régions tempérées chaudes et subtropicales d'Extrême-Orient et d'Asie du Sud-Est (Chine, Viêt Nam, Laos).
-Elle a été naturalisée dans d'autres régions du monde, notamment aux États-Unis où elle est désormais considérée comme plante envahissante[4] dans de nombreux États du Sud-Est. Bien que l'espèce soit courante en jardinerie, il est déconseillé de l'acquérir compte tenu des risques écologiques liés à sa propagation.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -663,13 +687,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Toxicité</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ligustrum sinense est une espèce toxique en cas d'ingestion des feuilles ou des baies. La plante contient en effet un glycoside toxique, la syringine (ou ligustrine) et de l'acide shikimique, ainsi que d'autres substances toxiques.
-Les symptômes de l'intoxication sont notamment des douleurs abdominales, des nausées, vomissements, de la diarrhée, des maux de tête et un état de faiblesse[5].
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originaire des régions tempérées chaudes et subtropicales d'Extrême-Orient et d'Asie du Sud-Est (Chine, Viêt Nam, Laos).
+Elle a été naturalisée dans d'autres régions du monde, notamment aux États-Unis où elle est désormais considérée comme plante envahissante dans de nombreux États du Sud-Est. Bien que l'espèce soit courante en jardinerie, il est déconseillé de l'acquérir compte tenu des risques écologiques liés à sa propagation.
 </t>
         </is>
       </c>
@@ -695,12 +721,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Culture</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De croissance rapide, le troène de Chine a besoin de peu de choses pour proliférer. En terrain humide, il se multiplie très vite aussi bien par marcottage naturel que grâce à la multitude de fruits qu'il produit et que les animaux disséminent. Il se bouture également très facilement.
+          <t>Toxicité</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ligustrum sinense est une espèce toxique en cas d'ingestion des feuilles ou des baies. La plante contient en effet un glycoside toxique, la syringine (ou ligustrine) et de l'acide shikimique, ainsi que d'autres substances toxiques.
+Les symptômes de l'intoxication sont notamment des douleurs abdominales, des nausées, vomissements, de la diarrhée, des maux de tête et un état de faiblesse.
 </t>
         </is>
       </c>
@@ -726,10 +755,45 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De croissance rapide, le troène de Chine a besoin de peu de choses pour proliférer. En terrain humide, il se multiplie très vite aussi bien par marcottage naturel que grâce à la multitude de fruits qu'il produit et que les animaux disséminent. Il se bouture également très facilement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ligustrum_sinense</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ligustrum_sinense</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Plante ornementale : arbuste pour la confection de haies d'où son nom anglais de "privet" (la haie permet de créer un espace privé).
 Souvent utilisée en bonsaï car c'est une espèce facile à entretenir pour les débutants. Il pardonne beaucoup d'erreurs. La seule chose importante est de toujours bien l'arroser sans jamais laisser complètement sécher la motte, mais sans laisser d'eau stagnante sous le pot. Il peut résister à des températures négatives allant jusqu'à -10 °C sur quelques jours. Ce n'est donc pas un bonsaï d'intérieur comme on le croit souvent.</t>
